--- a/config_3.2/act_hhl_ty_config.xlsx
+++ b/config_3.2/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>line|</t>
   </si>
@@ -173,22 +173,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>核桃花生奶16盒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年礼盒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙鱼大米5斤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年礼盒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>swjl_1</t>
   </si>
   <si>
@@ -305,48 +289,59 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>prop_fish_drop_act_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐福记礼盒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>琥珀核桃4罐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高档纯棉浴巾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐福记礼盒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>琥珀核桃4罐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高档纯棉浴巾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_003_hhl_</t>
+    <t>高档保温杯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽玩偶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端皂3块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档保温杯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端皂3块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档保温杯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端皂3块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档保温杯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽玩偶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端皂3块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_004_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_004_hhl_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,13 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +420,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,35 +445,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -793,21 +767,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="25.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -818,31 +793,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -852,32 +827,32 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="11">
         <v>41</v>
       </c>
-      <c r="E2" s="1">
-        <v>39</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>64</v>
+      <c r="D2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1614643200</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1615219199</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1614038400</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1614614399</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -887,32 +862,32 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="1">
-        <v>40</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="11">
+        <v>42</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>64</v>
+      <c r="F3" s="11">
+        <v>1614643200</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1615219199</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J3" s="6">
-        <v>1614038400</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1614614399</v>
       </c>
     </row>
   </sheetData>
@@ -925,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -941,8 +916,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>62</v>
+      <c r="A1" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
@@ -964,19 +939,19 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="B2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="11">
         <v>15000</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="E2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="11">
         <v>1</v>
       </c>
     </row>
@@ -984,19 +959,19 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="B3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="11">
         <v>8000</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="E3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1004,19 +979,19 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="B4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="11">
         <v>5000</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="E4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1024,17 +999,17 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>24000</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1042,17 +1017,17 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="B6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="11">
         <v>12000</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1060,17 +1035,17 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="B7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="11">
         <v>6000</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1078,17 +1053,17 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>2400</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1096,17 +1071,17 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="B9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11">
         <v>1200</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1114,19 +1089,19 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="B10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="11">
         <v>15000</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1134,19 +1109,19 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="11">
         <v>8000</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1154,19 +1129,19 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="B12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="11">
         <v>5000</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="E12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1174,17 +1149,17 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <v>24000</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1192,17 +1167,17 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <v>12000</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1210,17 +1185,17 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="B15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="11">
         <v>6000</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1228,17 +1203,17 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="11">
         <v>2400</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1246,17 +1221,17 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="B17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="11">
         <v>1200</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
         <v>0</v>
       </c>
     </row>

--- a/config_3.2/act_hhl_ty_config.xlsx
+++ b/config_3.2/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -767,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>1000291</v>
+        <v>1000322</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>31</v>
@@ -1295,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>1000292</v>
+        <v>1000323</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>32</v>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>1000293</v>
+        <v>1000324</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>33</v>
@@ -1323,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>1000294</v>
+        <v>1000325</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>34</v>
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>1000295</v>
+        <v>1000326</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>35</v>
@@ -1351,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>1000296</v>
+        <v>1000327</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>36</v>
@@ -1365,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>1000297</v>
+        <v>1000328</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>37</v>
@@ -1379,7 +1379,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>1000298</v>
+        <v>1000329</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>38</v>
@@ -1437,36 +1437,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1477,49 +1458,68 @@
 </sheetInterline>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_3.2/act_hhl_ty_config.xlsx
+++ b/config_3.2/act_hhl_ty_config.xlsx
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>1000322</v>
+        <v>1000324</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>31</v>
@@ -1295,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>1000323</v>
+        <v>1000325</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>32</v>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>1000324</v>
+        <v>1000326</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>33</v>
@@ -1323,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>1000325</v>
+        <v>1000327</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>34</v>
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>1000326</v>
+        <v>1000328</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>35</v>
@@ -1351,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>1000327</v>
+        <v>1000329</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>36</v>
@@ -1365,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>1000328</v>
+        <v>1000330</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>37</v>
@@ -1379,7 +1379,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>1000329</v>
+        <v>1000331</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>38</v>
@@ -1437,6 +1437,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1447,37 +1478,6 @@
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
@@ -1489,13 +1489,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1507,13 +1507,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
